--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6090E-AF4A-429E-B052-65B3AC8BADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153DD6F-B481-4F70-B3CD-99612E2D7238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTimeline" sheetId="8" r:id="rId1"/>
+    <sheet name="(c)" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectTimeline!$A:$M</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>TASK</t>
   </si>
@@ -84,15 +85,6 @@
   </si>
   <si>
     <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Key Customers</t>
-  </si>
-  <si>
-    <t>Evaluate</t>
-  </si>
-  <si>
-    <t>Begin Full Production</t>
   </si>
   <si>
     <t>Milestone 1</t>
@@ -188,6 +180,42 @@
   </si>
   <si>
     <t>Documentate TFG</t>
+  </si>
+  <si>
+    <t>Creating an IG</t>
+  </si>
+  <si>
+    <t>Showing our work in pages</t>
+  </si>
+  <si>
+    <t>Making a Website</t>
+  </si>
+  <si>
+    <t>Project Timeline Template</t>
+  </si>
+  <si>
+    <t>© 2017 Vertex42 LLC</t>
+  </si>
+  <si>
+    <t>By Vertex42.com</t>
+  </si>
+  <si>
+    <t>https://www.vertex42.com/ExcelTemplates/project-timeline.html</t>
+  </si>
+  <si>
+    <t>This spreadsheet, including all worksheets and associated content is a copyrighted work under the United States and other copyright laws.</t>
+  </si>
+  <si>
+    <t>Do not submit copies or modifications of this template to any website or online template gallery.</t>
+  </si>
+  <si>
+    <t>Please review the following license agreement to learn how you may or may not use this template. Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.vertex42.com/licensing/EULA_privateuse.html</t>
+  </si>
+  <si>
+    <t>Do not delete this worksheet</t>
   </si>
 </sst>
 </file>
@@ -197,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +336,61 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -341,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -525,6 +608,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,7 +645,7 @@
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,6 +779,44 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -889,13 +1038,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -988,13 +1137,13 @@
                   <c:v>44727</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44576</c:v>
+                  <c:v>44696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44576</c:v>
+                  <c:v>44696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44576</c:v>
+                  <c:v>44696</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44576</c:v>
@@ -1075,13 +1224,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -1261,13 +1410,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -1447,13 +1596,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -1633,13 +1782,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -1819,13 +1968,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -1924,7 +2073,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2005,13 +2154,13 @@
                     <c:v>Solve Errors</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Key Customers</c:v>
+                    <c:v>Creating an IG</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Evaluate</c:v>
+                    <c:v>Showing our work in pages</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Begin Full Production</c:v>
+                    <c:v>Making a Website</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Documentate TFG</c:v>
@@ -3444,8 +3593,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3472,6 +3621,56 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655289E2-D6A8-4A16-9140-65CCE0CA16EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13173075" y="434975"/>
+          <a:ext cx="1390650" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3743,18 +3942,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="6" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="7.58203125" style="6" customWidth="1"/>
@@ -3764,9 +3963,9 @@
     <col min="16" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -3781,14 +3980,35 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O3" s="10"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4"/>
+      <c r="R4" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q5"/>
+      <c r="R5" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" s="49"/>
     </row>
     <row r="31" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
@@ -3811,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3840,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>9</v>
@@ -3877,10 +4097,10 @@
     </row>
     <row r="45" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
         <v>44576</v>
@@ -3896,34 +4116,34 @@
         <v>44576</v>
       </c>
       <c r="G45" s="37">
-        <f>IF(ISBLANK($D45),0,IF($E45=G$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" ref="G45:L54" si="0">IF(ISBLANK($D45),0,IF($E45=G$43,_xlfn.DAYS($D45,$C45),0))</f>
         <v>16</v>
       </c>
       <c r="H45" s="37">
-        <f>IF(ISBLANK($D45),0,IF($E45=H$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="37">
-        <f>IF(ISBLANK($D45),0,IF($E45=I$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J45" s="37">
-        <f>IF(ISBLANK($D45),0,IF($E45=J$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K45" s="37">
-        <f>IF(ISBLANK($D45),0,IF($E45=K$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L45" s="38">
-        <f>IF(ISBLANK($D45),0,IF($E45=L$43,_xlfn.DAYS($D45,$C45),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1">
         <v>44592</v>
@@ -3935,38 +4155,38 @@
         <v>9</v>
       </c>
       <c r="F46" s="27">
-        <f t="shared" ref="F46:F63" si="0">IF(ISBLANK(C46),0,C46)</f>
+        <f t="shared" ref="F46:F63" si="1">IF(ISBLANK(C46),0,C46)</f>
         <v>44592</v>
       </c>
       <c r="G46" s="37">
-        <f>IF(ISBLANK($D46),0,IF($E46=G$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H46" s="37">
-        <f>IF(ISBLANK($D46),0,IF($E46=H$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="37">
-        <f>IF(ISBLANK($D46),0,IF($E46=I$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J46" s="37">
-        <f>IF(ISBLANK($D46),0,IF($E46=J$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K46" s="37">
-        <f>IF(ISBLANK($D46),0,IF($E46=K$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L46" s="38">
-        <f>IF(ISBLANK($D46),0,IF($E46=L$43,_xlfn.DAYS($D46,$C46),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
         <v>44592</v>
@@ -3978,38 +4198,38 @@
         <v>9</v>
       </c>
       <c r="F47" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44592</v>
       </c>
       <c r="G47" s="37">
-        <f>IF(ISBLANK($D47),0,IF($E47=G$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H47" s="37">
-        <f>IF(ISBLANK($D47),0,IF($E47=H$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="37">
-        <f>IF(ISBLANK($D47),0,IF($E47=I$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J47" s="37">
-        <f>IF(ISBLANK($D47),0,IF($E47=J$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K47" s="37">
-        <f>IF(ISBLANK($D47),0,IF($E47=K$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L47" s="38">
-        <f>IF(ISBLANK($D47),0,IF($E47=L$43,_xlfn.DAYS($D47,$C47),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
         <v>44607</v>
@@ -4021,40 +4241,40 @@
         <v>9</v>
       </c>
       <c r="F48" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44607</v>
       </c>
       <c r="G48" s="37">
-        <f>IF(ISBLANK($D48),0,IF($E48=G$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H48" s="37">
-        <f>IF(ISBLANK($D48),0,IF($E48=H$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="37">
-        <f>IF(ISBLANK($D48),0,IF($E48=I$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J48" s="37">
-        <f>IF(ISBLANK($D48),0,IF($E48=J$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K48" s="37">
-        <f>IF(ISBLANK($D48),0,IF($E48=K$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L48" s="38">
-        <f>IF(ISBLANK($D48),0,IF($E48=L$43,_xlfn.DAYS($D48,$C48),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
         <v>44621</v>
@@ -4066,38 +4286,38 @@
         <v>10</v>
       </c>
       <c r="F49" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="G49" s="37">
-        <f>IF(ISBLANK($D49),0,IF($E49=G$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49" s="37">
-        <f>IF(ISBLANK($D49),0,IF($E49=H$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="37">
-        <f>IF(ISBLANK($D49),0,IF($E49=I$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J49" s="37">
-        <f>IF(ISBLANK($D49),0,IF($E49=J$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K49" s="37">
-        <f>IF(ISBLANK($D49),0,IF($E49=K$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L49" s="38">
-        <f>IF(ISBLANK($D49),0,IF($E49=L$43,_xlfn.DAYS($D49,$C49),0))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>44621</v>
@@ -4109,38 +4329,38 @@
         <v>10</v>
       </c>
       <c r="F50" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="G50" s="37">
-        <f>IF(ISBLANK($D50),0,IF($E50=G$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H50" s="37">
-        <f>IF(ISBLANK($D50),0,IF($E50=H$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="37">
-        <f>IF(ISBLANK($D50),0,IF($E50=I$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J50" s="37">
-        <f>IF(ISBLANK($D50),0,IF($E50=J$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K50" s="37">
-        <f>IF(ISBLANK($D50),0,IF($E50=K$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L50" s="38">
-        <f>IF(ISBLANK($D50),0,IF($E50=L$43,_xlfn.DAYS($D50,$C50),0))</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
         <v>44621</v>
@@ -4152,38 +4372,38 @@
         <v>10</v>
       </c>
       <c r="F51" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="G51" s="37">
-        <f>IF(ISBLANK($D51),0,IF($E51=G$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H51" s="37">
-        <f>IF(ISBLANK($D51),0,IF($E51=H$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="37">
-        <f>IF(ISBLANK($D51),0,IF($E51=I$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J51" s="37">
-        <f>IF(ISBLANK($D51),0,IF($E51=J$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K51" s="37">
-        <f>IF(ISBLANK($D51),0,IF($E51=K$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L51" s="38">
-        <f>IF(ISBLANK($D51),0,IF($E51=L$43,_xlfn.DAYS($D51,$C51),0))</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1">
         <v>44621</v>
@@ -4195,40 +4415,40 @@
         <v>10</v>
       </c>
       <c r="F52" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="G52" s="37">
-        <f>IF(ISBLANK($D52),0,IF($E52=G$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="37">
-        <f>IF(ISBLANK($D52),0,IF($E52=H$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="37">
-        <f>IF(ISBLANK($D52),0,IF($E52=I$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J52" s="37">
-        <f>IF(ISBLANK($D52),0,IF($E52=J$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K52" s="37">
-        <f>IF(ISBLANK($D52),0,IF($E52=K$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L52" s="38">
-        <f>IF(ISBLANK($D52),0,IF($E52=L$43,_xlfn.DAYS($D52,$C52),0))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="26" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
         <v>44635</v>
@@ -4240,31 +4460,31 @@
         <v>8</v>
       </c>
       <c r="F53" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44635</v>
       </c>
       <c r="G53" s="37">
-        <f>IF(ISBLANK($D53),0,IF($E53=G$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" s="37">
-        <f>IF(ISBLANK($D53),0,IF($E53=H$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="37">
-        <f>IF(ISBLANK($D53),0,IF($E53=I$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="J53" s="37">
-        <f>IF(ISBLANK($D53),0,IF($E53=J$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="37">
-        <f>IF(ISBLANK($D53),0,IF($E53=K$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L53" s="38">
-        <f>IF(ISBLANK($D53),0,IF($E53=L$43,_xlfn.DAYS($D53,$C53),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4281,31 +4501,31 @@
         <v>8</v>
       </c>
       <c r="F54" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44576</v>
       </c>
       <c r="G54" s="37">
-        <f>IF(ISBLANK($D54),0,IF($E54=G$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" s="37">
-        <f>IF(ISBLANK($D54),0,IF($E54=H$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="37">
-        <f>IF(ISBLANK($D54),0,IF($E54=I$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>-349</v>
       </c>
       <c r="J54" s="37">
-        <f>IF(ISBLANK($D54),0,IF($E54=J$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K54" s="37">
-        <f>IF(ISBLANK($D54),0,IF($E54=K$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L54" s="38">
-        <f>IF(ISBLANK($D54),0,IF($E54=L$43,_xlfn.DAYS($D54,$C54),0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,31 +4542,31 @@
         <v>8</v>
       </c>
       <c r="F55" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44576</v>
       </c>
       <c r="G55" s="37">
-        <f>IF(ISBLANK($D55),0,IF($E55=G$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" ref="G55:L63" si="2">IF(ISBLANK($D55),0,IF($E55=G$43,_xlfn.DAYS($D55,$C55),0))</f>
         <v>0</v>
       </c>
       <c r="H55" s="37">
-        <f>IF(ISBLANK($D55),0,IF($E55=H$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="37">
-        <f>IF(ISBLANK($D55),0,IF($E55=I$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" si="2"/>
         <v>-348</v>
       </c>
       <c r="J55" s="37">
-        <f>IF(ISBLANK($D55),0,IF($E55=J$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55" s="37">
-        <f>IF(ISBLANK($D55),0,IF($E55=K$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L55" s="38">
-        <f>IF(ISBLANK($D55),0,IF($E55=L$43,_xlfn.DAYS($D55,$C55),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4363,40 +4583,40 @@
         <v>8</v>
       </c>
       <c r="F56" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44576</v>
       </c>
       <c r="G56" s="37">
-        <f>IF(ISBLANK($D56),0,IF($E56=G$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="37">
-        <f>IF(ISBLANK($D56),0,IF($E56=H$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="37">
-        <f>IF(ISBLANK($D56),0,IF($E56=I$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>-347</v>
       </c>
       <c r="J56" s="37">
-        <f>IF(ISBLANK($D56),0,IF($E56=J$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56" s="37">
-        <f>IF(ISBLANK($D56),0,IF($E56=K$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L56" s="38">
-        <f>IF(ISBLANK($D56),0,IF($E56=L$43,_xlfn.DAYS($D56,$C56),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
         <v>44713</v>
@@ -4408,38 +4628,38 @@
         <v>12</v>
       </c>
       <c r="F57" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="G57" s="37">
-        <f>IF(ISBLANK($D57),0,IF($E57=G$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="37">
-        <f>IF(ISBLANK($D57),0,IF($E57=H$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="37">
-        <f>IF(ISBLANK($D57),0,IF($E57=I$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="37">
-        <f>IF(ISBLANK($D57),0,IF($E57=J$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K57" s="37">
-        <f>IF(ISBLANK($D57),0,IF($E57=K$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L57" s="38">
-        <f>IF(ISBLANK($D57),0,IF($E57=L$43,_xlfn.DAYS($D57,$C57),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>44727</v>
@@ -4451,38 +4671,38 @@
         <v>12</v>
       </c>
       <c r="F58" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44727</v>
       </c>
       <c r="G58" s="37">
-        <f>IF(ISBLANK($D58),0,IF($E58=G$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="37">
-        <f>IF(ISBLANK($D58),0,IF($E58=H$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="37">
-        <f>IF(ISBLANK($D58),0,IF($E58=I$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="37">
-        <f>IF(ISBLANK($D58),0,IF($E58=J$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K58" s="37">
-        <f>IF(ISBLANK($D58),0,IF($E58=K$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L58" s="38">
-        <f>IF(ISBLANK($D58),0,IF($E58=L$43,_xlfn.DAYS($D58,$C58),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
         <v>44727</v>
@@ -4494,171 +4714,171 @@
         <v>12</v>
       </c>
       <c r="F59" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44727</v>
       </c>
       <c r="G59" s="37">
-        <f>IF(ISBLANK($D59),0,IF($E59=G$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="37">
-        <f>IF(ISBLANK($D59),0,IF($E59=H$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="37">
-        <f>IF(ISBLANK($D59),0,IF($E59=I$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="37">
-        <f>IF(ISBLANK($D59),0,IF($E59=J$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K59" s="37">
-        <f>IF(ISBLANK($D59),0,IF($E59=K$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L59" s="38">
-        <f>IF(ISBLANK($D59),0,IF($E59=L$43,_xlfn.DAYS($D59,$C59),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1">
-        <v>44576</v>
+        <v>44696</v>
       </c>
       <c r="D60" s="23">
-        <v>44592</v>
+        <v>44712</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="27">
-        <f t="shared" si="0"/>
-        <v>44576</v>
+        <f t="shared" si="1"/>
+        <v>44696</v>
       </c>
       <c r="G60" s="37">
-        <f>IF(ISBLANK($D60),0,IF($E60=G$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="37">
-        <f>IF(ISBLANK($D60),0,IF($E60=H$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="37">
-        <f>IF(ISBLANK($D60),0,IF($E60=I$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="37">
-        <f>IF(ISBLANK($D60),0,IF($E60=J$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60" s="37">
-        <f>IF(ISBLANK($D60),0,IF($E60=K$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L60" s="38">
-        <f>IF(ISBLANK($D60),0,IF($E60=L$43,_xlfn.DAYS($D60,$C60),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="22" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1">
-        <v>44576</v>
+        <v>44696</v>
       </c>
       <c r="D61" s="23">
-        <v>44592</v>
+        <v>44712</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="27">
-        <f t="shared" si="0"/>
-        <v>44576</v>
+        <f t="shared" si="1"/>
+        <v>44696</v>
       </c>
       <c r="G61" s="37">
-        <f>IF(ISBLANK($D61),0,IF($E61=G$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="37">
-        <f>IF(ISBLANK($D61),0,IF($E61=H$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I61" s="37">
-        <f>IF(ISBLANK($D61),0,IF($E61=I$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="37">
-        <f>IF(ISBLANK($D61),0,IF($E61=J$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K61" s="37">
-        <f>IF(ISBLANK($D61),0,IF($E61=K$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="L61" s="38">
-        <f>IF(ISBLANK($D61),0,IF($E61=L$43,_xlfn.DAYS($D61,$C61),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="22" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C62" s="1">
-        <v>44576</v>
+        <v>44696</v>
       </c>
       <c r="D62" s="23">
-        <v>44592</v>
+        <v>44727</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="27">
-        <f t="shared" si="0"/>
-        <v>44576</v>
+        <f t="shared" si="1"/>
+        <v>44696</v>
       </c>
       <c r="G62" s="37">
-        <f>IF(ISBLANK($D62),0,IF($E62=G$43,_xlfn.DAYS($D62,$C62),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62" s="37">
-        <f>IF(ISBLANK($D62),0,IF($E62=H$43,_xlfn.DAYS($D62,$C62),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I62" s="37">
-        <f>IF(ISBLANK($D62),0,IF($E62=I$43,_xlfn.DAYS($D62,$C62),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="37">
-        <f>IF(ISBLANK($D62),0,IF($E62=J$43,_xlfn.DAYS($D62,$C62),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62" s="37">
-        <f>IF(ISBLANK($D62),0,IF($E62=K$43,_xlfn.DAYS($D62,$C62),0))</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="L62" s="38">
-        <f>IF(ISBLANK($D62),0,IF($E62=L$43,_xlfn.DAYS($D62,$C62),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1">
         <v>44576</v>
@@ -4670,38 +4890,38 @@
         <v>7</v>
       </c>
       <c r="F63" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44576</v>
       </c>
       <c r="G63" s="37">
-        <f>IF(ISBLANK($D63),0,IF($E63=G$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="37">
-        <f>IF(ISBLANK($D63),0,IF($E63=H$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
       <c r="I63" s="37">
-        <f>IF(ISBLANK($D63),0,IF($E63=I$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="37">
-        <f>IF(ISBLANK($D63),0,IF($E63=J$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K63" s="37">
-        <f>IF(ISBLANK($D63),0,IF($E63=K$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L63" s="38">
-        <f>IF(ISBLANK($D63),0,IF($E63=L$43,_xlfn.DAYS($D63,$C63),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="23"/>
@@ -4717,7 +4937,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="23"/>
@@ -4733,7 +4953,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="43"/>
@@ -4749,7 +4969,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="43"/>
@@ -4780,21 +5000,21 @@
     </row>
     <row r="72" spans="1:12" ht="23" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="33" t="s">
         <v>21</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C73" s="34">
         <v>42796</v>
@@ -4808,7 +5028,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" s="34">
         <v>42826</v>
@@ -4822,7 +5042,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C75" s="34">
         <v>42859</v>
@@ -4836,7 +5056,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C76" s="34"/>
       <c r="D76" s="35">
@@ -4852,9 +5072,195 @@
       <formula1>$G$43:$L$43</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{A50FE10D-E37A-4355-A403-03D635149E45}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.35" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="97" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter scaleWithDoc="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92EF3F-6B30-4499-8BF0-9F1FFFB0944F}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.58203125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="67.58203125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="56"/>
+      <c r="B6" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
+      <c r="B8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="58"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="56"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
+    </row>
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="56"/>
+      <c r="B10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="58"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="56"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="58"/>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="56"/>
+      <c r="B12" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="58"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="56"/>
+      <c r="B14" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="58"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="56"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="56"/>
+      <c r="B16" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="58"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="58"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="58"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{200F00DB-E110-49DF-9CD8-8ED5EFB4C599}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{34333667-4FF3-43F3-96C3-331A676B0D9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>